--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-humanname.xlsx
@@ -155,129 +155,129 @@
 </t>
   </si>
   <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>HumanName.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>HumanName.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HumanName.extension:nameRepresentationUse</t>
+  </si>
+  <si>
+    <t>nameRepresentationUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-EN-representation}
+</t>
+  </si>
+  <si>
+    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
+  </si>
+  <si>
+    <t>名前の表現方法</t>
+  </si>
+  <si>
+    <t>名前の文字起こし-表現方法（日本の名前など）。</t>
+  </si>
+  <si>
+    <t>ENXP.use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、名前が最新であると想定できます。 / Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストに適切な名前を許可します。名前のセットの中から選択できます。 / Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>人間名の使用。 / The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>HumanName.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>HumanName.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>HumanName.extension:nameRepresentationUse</t>
-  </si>
-  <si>
-    <t>nameRepresentationUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-EN-representation}
-</t>
-  </si>
-  <si>
-    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
-  </si>
-  <si>
-    <t>名前の表現方法</t>
-  </si>
-  <si>
-    <t>名前の文字起こし-表現方法（日本の名前など）。</t>
-  </si>
-  <si>
-    <t>ENXP.use</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、名前が最新であると想定できます。 / Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストに適切な名前を許可します。名前のセットの中から選択できます。 / Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>人間名の使用。 / The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
@@ -869,24 +869,24 @@
         <v>45</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -897,25 +897,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -966,25 +966,25 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>38</v>
@@ -992,14 +992,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1018,16 +1018,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1065,19 +1065,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1089,13 +1089,13 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>38</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -1119,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1131,16 +1131,16 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1190,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1202,13 +1202,13 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>38</v>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1230,31 +1230,31 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1279,43 +1279,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>85</v>
@@ -1343,19 +1343,19 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>89</v>
@@ -1422,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>93</v>
@@ -1456,19 +1456,19 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>97</v>
@@ -1533,13 +1533,13 @@
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>100</v>
@@ -1576,10 +1576,10 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>105</v>
@@ -1650,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>108</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>112</v>
@@ -1759,7 +1759,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>114</v>
@@ -1796,10 +1796,10 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>118</v>
@@ -1868,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>120</v>
@@ -1896,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1905,7 +1905,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>123</v>
@@ -1973,13 +1973,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>127</v>
